--- a/полученные данные_итог.xlsx
+++ b/полученные данные_итог.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B2A678-62FC-4A31-B6CD-6B91CD9E862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97573CE-2499-498E-975C-0ABD003B3DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="1110" windowWidth="10230" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>26.6</v>
       </c>
       <c r="D10" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E10" s="1">
         <v>300</v>
@@ -776,7 +776,7 @@
         <v>29.1</v>
       </c>
       <c r="D14" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="1">
         <v>300</v>
@@ -805,7 +805,7 @@
         <v>15.3</v>
       </c>
       <c r="D15" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="E15" s="1">
         <v>200</v>
@@ -834,7 +834,7 @@
         <v>9.9</v>
       </c>
       <c r="D16" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E16" s="1">
         <v>200</v>
@@ -871,7 +871,7 @@
         <v>30.4</v>
       </c>
       <c r="D18" s="1">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="E18" s="1">
         <v>300</v>
@@ -900,7 +900,7 @@
         <v>25.1</v>
       </c>
       <c r="D19" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>300</v>
@@ -929,7 +929,7 @@
         <v>17.8</v>
       </c>
       <c r="D20" s="1">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
